--- a/biology/Botanique/Musaceae/Musaceae.xlsx
+++ b/biology/Botanique/Musaceae/Musaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Musaceae, ou Musacées, sont une famille de plantes à fleurs des régions tropicales d'Asie, d'Afrique, de Madagascar et d'Australie, naturalisée en Amérique centrale. Ce sont généralement de très grandes plantes herbacées munies d'un pseudo-tronc constitué à partir de la base massive des feuilles.
-En 2016, la famille des musacées dénombrait pas moins de 91 espèces réparties en 3 genres[1]. C'est la famille des bananiers (genre Musa) produisant les bananes et bananes plantain.
+En 2016, la famille des musacées dénombrait pas moins de 91 espèces réparties en 3 genres. C'est la famille des bananiers (genre Musa) produisant les bananes et bananes plantain.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Musa de Antonius Musa 63 –  14 av. J.-C., médecin de l’empereur romain Auguste[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Musa de Antonius Musa 63 –  14 av. J.-C., médecin de l’empereur romain Auguste.
 </t>
         </is>
       </c>
@@ -543,16 +557,18 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[3] et Angiosperm Phylogeny Website                        (17 mai 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010) et Angiosperm Phylogeny Website                        (17 mai 2010) :
 genre Ensete  Bruce ex Horan. (1862)
 genre Musa  L. (1753)
-Selon DELTA Angio           (22 avr. 2010)[5] et ITIS      (22 avr. 2010)[6] :
+Selon DELTA Angio           (22 avr. 2010) et ITIS      (22 avr. 2010) :
 genre Ensete  Horan.
 genre Musa  L.
 genre Ravenala  Adans.
-Selon NCBI  (4 août 2010)[7],
+Selon NCBI  (4 août 2010),
 genre Ensete  Horan.
 genre Musa  L.
 genre Musella  Wu ex H.W.Li</t>
@@ -583,9 +599,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (25 février 2012)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (25 février 2012) :
 genre Ensete  Bruce ex Horan. (1862)
 Ensete glaucum  (Roxb.) Cheesman (1947 publ. 1948)
 Ensete homblei  (Bequaert ex De Wild.) Cheesman (1947 publ. 1948)
@@ -723,7 +741,7 @@
 Musa yunnanensis var. yongpingensis Häkkinen &amp; H.Wang (2009)
 Musa yunnanensis var. yunnanensis
 Musa zaifui Häkkinen &amp; H.Wang, (2008).
-Selon NCBI  (22 avr. 2010)[9] :
+Selon NCBI  (22 avr. 2010) :
 genre Ensete
 Ensete gilletii
 Ensete glaucum
@@ -821,9 +839,11 @@
           <t>Espèces aux noms obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (25 février 2012)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (25 février 2012) :
 Ensete agharkarii (Chakravorti) Hore, B.D.Sharma &amp; G.Pandey, (1992).  = Ensete glaucum (Roxb.) Cheesman, (1947 publ. 1948).
 Ensete arnoldianum (De Wild.) Cheesman, (1947 publ. 1948) = Ensete ventricosum (Welw.) Cheesman, (1947 publ. 1948)
 Ensete bagshawei (Rendle &amp; Greves) Cheesman, (1947 publ. 1948) = Ensete ventricosum (Welw.) Cheesman, (1947 publ. 1948)
